--- a/MatrizInteraccion.xlsx
+++ b/MatrizInteraccion.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ProyectoMetodologia\proyectometodologia7342\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\ProyectoMetodologia\proyectometodologia7342\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE597FAC-DD78-4544-A667-C20DD5A51F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7701F663-7F0E-47FE-BD3E-10397AEAB5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B54C637C-404F-4D2D-A9ED-4D5683E2DFA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B54C637C-404F-4D2D-A9ED-4D5683E2DFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>S= Solapamiento</t>
   </si>
@@ -52,13 +55,25 @@
     <t>RQ2:El sistema debe permitir almacenar la información del cliente ya ingresada en la computadora</t>
   </si>
   <si>
-    <t>RQ5: El sistema debe permitir ingresar la cantidad de billetes y monedas en caja al final de cada día laborable</t>
-  </si>
-  <si>
     <t>RQ6: El sistema debe crear una factura a partir de los productos vendidos al cliente. La información colocada en la factura debe incluir nombres completos, cédula de identidad, correo electrónico, dirección de vivienda, y teléfono, así como los datos de la empresa: dirección del establecimiento, numero del telefono celular,ruc,nombre del trabajador y un desglose de los productos que el cliente compró. Se debe considerar el 12% del IVA en cada factura.</t>
   </si>
   <si>
     <t>RQ4: El sistema debe permitir ingresar la información del registro del trabajador. Los datos a ingresar son: nombre, cédula de identidad, correo electrónico, número celular, dirección de vivienda, id de empleado.</t>
+  </si>
+  <si>
+    <t>RQ5: El sistema debe permitir ingresar la cantidad de billetes y monedas en caja al final de cada día laborable, así como realizar el cálculo del arqueo de caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQ7: Si el usuario desea dar de baja a un empleado existente, comunicará al sistema el nombre de usuario del empleado y si  existe, el usuario podrá darlo de baja. </t>
+  </si>
+  <si>
+    <t>RQ8: Si el operario desea editar su información personal, el sistema debe permitirlo, a excepción de su C.I/C.C</t>
+  </si>
+  <si>
+    <t>RQ9: Si el cliente desea cambiar algun dato personal registrado en el sistema, el sistema debe comunicar al operario el cual realizará el cambio de la información en el sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQ10: El sistema debe realizar el cálculo de arqueo de caja en base a la información ingresada por el usuario de la cantidad de billetes y monedas recibidas. </t>
   </si>
 </sst>
 </file>
@@ -129,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -149,6 +164,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,8 +184,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E8C0A-5850-4D90-946C-36A3428DE936}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="3"/>
@@ -478,12 +509,16 @@
     <col min="6" max="6" width="20.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="51.5703125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="53.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="66.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21" style="3" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="57.85546875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -497,16 +532,28 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -520,7 +567,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -531,7 +578,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -542,9 +589,9 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -555,9 +602,9 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -566,9 +613,9 @@
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -576,6 +623,63 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
